--- a/scimagojr/scimagojr_2003.xlsx
+++ b/scimagojr/scimagojr_2003.xlsx
@@ -167,15 +167,15 @@
     <t>Hungary</t>
   </si>
   <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
     <t>Portugal</t>
   </si>
   <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
     <t>Argentina</t>
   </si>
   <si>
@@ -224,12 +224,12 @@
     <t>Nigeria</t>
   </si>
   <si>
+    <t>Belarus</t>
+  </si>
+  <si>
     <t>Venezuela</t>
   </si>
   <si>
-    <t>Belarus</t>
-  </si>
-  <si>
     <t>Tunisia</t>
   </si>
   <si>
@@ -254,15 +254,15 @@
     <t>United Arab Emirates</t>
   </si>
   <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
     <t>Kenya</t>
   </si>
   <si>
     <t>Jordan</t>
   </si>
   <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
     <t>Estonia</t>
   </si>
   <si>
@@ -305,21 +305,21 @@
     <t>Uzbekistan</t>
   </si>
   <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
     <t>Georgia</t>
   </si>
   <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
     <t>Tanzania</t>
   </si>
   <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
     <t>Kazakhstan</t>
   </si>
   <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
     <t>Azerbaijan</t>
   </si>
   <si>
@@ -329,12 +329,12 @@
     <t>Ethiopia</t>
   </si>
   <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
     <t>Senegal</t>
   </si>
   <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
     <t>Zimbabwe</t>
   </si>
   <si>
@@ -353,12 +353,12 @@
     <t>Macedonia</t>
   </si>
   <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
     <t>Botswana</t>
   </si>
   <si>
@@ -377,12 +377,12 @@
     <t>Burkina Faso</t>
   </si>
   <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
     <t>Syrian Arab Republic</t>
   </si>
   <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
     <t>Qatar</t>
   </si>
   <si>
@@ -401,12 +401,12 @@
     <t>Madagascar</t>
   </si>
   <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
     <t>Palestine</t>
   </si>
   <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
     <t>Malta</t>
   </si>
   <si>
@@ -419,12 +419,12 @@
     <t>Macao</t>
   </si>
   <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
     <t>Benin</t>
   </si>
   <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
     <t>Fiji</t>
   </si>
   <si>
@@ -437,15 +437,15 @@
     <t>Mali</t>
   </si>
   <si>
+    <t>Barbados</t>
+  </si>
+  <si>
     <t>Gambia</t>
   </si>
   <si>
     <t>Namibia</t>
   </si>
   <si>
-    <t>Barbados</t>
-  </si>
-  <si>
     <t>Mauritius</t>
   </si>
   <si>
@@ -455,12 +455,12 @@
     <t>Gabon</t>
   </si>
   <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
     <t>New Caledonia</t>
   </si>
   <si>
-    <t>Brunei Darussalam</t>
-  </si>
-  <si>
     <t>Mozambique</t>
   </si>
   <si>
@@ -479,39 +479,39 @@
     <t>Yemen</t>
   </si>
   <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
     <t>Monaco</t>
   </si>
   <si>
-    <t>Montenegro</t>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Laos</t>
   </si>
   <si>
     <t>French Polynesia</t>
   </si>
   <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Laos</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
     <t>Nicaragua</t>
   </si>
   <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
     <t>Guadeloupe</t>
   </si>
   <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
     <t>Greenland</t>
   </si>
   <si>
@@ -530,7 +530,7 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>Swaziland</t>
+    <t>Eswatini</t>
   </si>
   <si>
     <t>Guam</t>
@@ -548,18 +548,18 @@
     <t>Haïti</t>
   </si>
   <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
     <t>Bermuda</t>
   </si>
   <si>
-    <t>Mauritania</t>
+    <t>Rwanda</t>
   </si>
   <si>
     <t>Guyana</t>
   </si>
   <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
     <t>Angola</t>
   </si>
   <si>
@@ -584,10 +584,13 @@
     <t>Solomon Islands</t>
   </si>
   <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
     <t>Virgin Islands (U.S.)</t>
   </si>
   <si>
-    <t>Lesotho</t>
+    <t>Chad</t>
   </si>
   <si>
     <t>Afghanistan</t>
@@ -596,9 +599,6 @@
     <t>Vanuatu</t>
   </si>
   <si>
-    <t>Chad</t>
-  </si>
-  <si>
     <t>Turkmenistan</t>
   </si>
   <si>
@@ -608,12 +608,12 @@
     <t>Reunion</t>
   </si>
   <si>
+    <t>Martinique</t>
+  </si>
+  <si>
     <t>Federated States of Micronesia</t>
   </si>
   <si>
-    <t>Martinique</t>
-  </si>
-  <si>
     <t>Maldives</t>
   </si>
   <si>
@@ -629,103 +629,103 @@
     <t>Tonga</t>
   </si>
   <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
     <t>Samoa</t>
   </si>
   <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
     <t>Montserrat</t>
   </si>
   <si>
     <t>Suriname</t>
   </si>
   <si>
+    <t>Democratic Republic Congo</t>
+  </si>
+  <si>
     <t>Palau</t>
   </si>
   <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
     <t>Cayman Islands</t>
   </si>
   <si>
-    <t>Democratic Republic Congo</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
     <t>Bhutan</t>
   </si>
   <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
+    <t>Saint Vincent and the Grenadines</t>
   </si>
   <si>
     <t>Equatorial Guinea</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
     <t>American Samoa</t>
   </si>
   <si>
     <t>Antigua and Barbuda</t>
   </si>
   <si>
+    <t>Somalia</t>
+  </si>
+  <si>
     <t>Timor-Leste</t>
   </si>
   <si>
-    <t>Somalia</t>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
   </si>
   <si>
     <t>Kiribati</t>
   </si>
   <si>
-    <t>Comoros</t>
-  </si>
-  <si>
     <t>Gibraltar</t>
   </si>
   <si>
-    <t>Northern Mariana Islands</t>
-  </si>
-  <si>
     <t>Mayotte</t>
   </si>
   <si>
-    <t>Saint Lucia</t>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>San Marino</t>
   </si>
   <si>
     <t>United States Minor Outlying Islands</t>
   </si>
   <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen</t>
+  </si>
+  <si>
     <t>Turks and Caicos Islands</t>
   </si>
   <si>
-    <t>San Marino</t>
-  </si>
-  <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Svalbard and Jan Mayen</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
+    <t>Virgin Islands (British)</t>
   </si>
   <si>
     <t>Aruba</t>
-  </si>
-  <si>
-    <t>Virgin Islands (British)</t>
   </si>
 </sst>
 </file>
@@ -869,22 +869,22 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>433955</v>
+        <v>439416</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>398774</v>
+        <v>402062</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>21126585</v>
+        <v>23176757</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>9068118</v>
+        <v>9700129</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>48.68</v>
+        <v>52.74</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>2711</v>
+        <v>3051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
@@ -898,22 +898,22 @@
         <v>12</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>118465</v>
+        <v>120682</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>102513</v>
+        <v>103084</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>5178691</v>
+        <v>5699952</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>1068281</v>
+        <v>1138194</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>43.71</v>
+        <v>47.23</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1707</v>
+        <v>1928</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -927,22 +927,22 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>112971</v>
+        <v>113594</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>109853</v>
+        <v>110600</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>3078957</v>
+        <v>3328058</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>732848</v>
+        <v>763341</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>27.25</v>
+        <v>29.3</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1171</v>
+        <v>1301</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -956,22 +956,22 @@
         <v>12</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>103263</v>
+        <v>104258</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>98135</v>
+        <v>99118</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>3877107</v>
+        <v>4206712</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>843904</v>
+        <v>884697</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>37.55</v>
+        <v>40.35</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>1498</v>
+        <v>1690</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
@@ -985,22 +985,22 @@
         <v>14</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>82003</v>
+        <v>81930</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>81079</v>
+        <v>81043</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1437476</v>
+        <v>1556692</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>716604</v>
+        <v>770749</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>17.53</v>
+        <v>19</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>1112</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -1014,22 +1014,22 @@
         <v>12</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>72637</v>
+        <v>73067</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>69101</v>
+        <v>69529</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2679355</v>
+        <v>2912349</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>508749</v>
+        <v>532621</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>36.89</v>
+        <v>39.86</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1352</v>
+        <v>1514</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -1043,22 +1043,22 @@
         <v>10</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>56028</v>
+        <v>56428</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>51722</v>
+        <v>52020</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>2547134</v>
+        <v>2800506</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>404188</v>
+        <v>427474</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>45.46</v>
+        <v>49.63</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>1381</v>
+        <v>1562</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -1072,22 +1072,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>55494</v>
+        <v>55619</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>52400</v>
+        <v>52567</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1917894</v>
+        <v>2075215</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>391606</v>
+        <v>412634</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>34.56</v>
+        <v>37.31</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1189</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -1101,22 +1101,22 @@
         <v>12</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>39350</v>
+        <v>39396</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>36949</v>
+        <v>37043</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1315925</v>
+        <v>1430586</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>271141</v>
+        <v>283679</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>33.44</v>
+        <v>36.31</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>1073</v>
+        <v>1215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -1130,22 +1130,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>37530</v>
+        <v>38064</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>33995</v>
+        <v>34209</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1541437</v>
+        <v>1710562</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>286813</v>
+        <v>305750</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>41.07</v>
+        <v>44.94</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1193</v>
+        <v>1377</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -1159,22 +1159,22 @@
         <v>24</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>37528</v>
+        <v>37649</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>37070</v>
+        <v>37212</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>491461</v>
+        <v>534109</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>140195</v>
+        <v>149474</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>13.1</v>
+        <v>14.19</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>675</v>
+        <v>753</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -1188,22 +1188,22 @@
         <v>14</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>33350</v>
+        <v>33401</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>31601</v>
+        <v>31704</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>752728</v>
+        <v>829452</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>245205</v>
+        <v>270677</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>22.57</v>
+        <v>24.83</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>745</v>
+        <v>858</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
@@ -1217,22 +1217,22 @@
         <v>12</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>30565</v>
+        <v>30801</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>28474</v>
+        <v>28560</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1634442</v>
+        <v>1789008</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>208753</v>
+        <v>218431</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>53.47</v>
+        <v>58.08</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>1206</v>
+        <v>1373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -1246,22 +1246,22 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>28354</v>
+        <v>28469</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>27826</v>
+        <v>27988</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>755934</v>
+        <v>817312</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>127093</v>
+        <v>131506</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>26.66</v>
+        <v>28.71</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>810</v>
+        <v>934</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -1275,22 +1275,22 @@
         <v>12</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>22101</v>
+        <v>22209</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>20884</v>
+        <v>20981</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>1121801</v>
+        <v>1225118</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>131965</v>
+        <v>137271</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>50.76</v>
+        <v>55.16</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>1036</v>
+        <v>1159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -1304,22 +1304,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>21951</v>
+        <v>22034</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>20572</v>
+        <v>20679</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>1160322</v>
+        <v>1264314</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>124168</v>
+        <v>129510</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>52.86</v>
+        <v>57.38</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>1142</v>
+        <v>1291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -1333,22 +1333,22 @@
         <v>31</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>21493</v>
+        <v>21534</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>20959</v>
+        <v>21033</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>541920</v>
+        <v>590372</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>166836</v>
+        <v>176762</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>25.21</v>
+        <v>27.42</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>690</v>
+        <v>789</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -1362,22 +1362,22 @@
         <v>24</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>20265</v>
+        <v>20296</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>19874</v>
+        <v>19914</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>378389</v>
+        <v>410021</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>84129</v>
+        <v>87740</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>18.67</v>
+        <v>20.2</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>660</v>
+        <v>738</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
@@ -1391,22 +1391,22 @@
         <v>14</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>18623</v>
+        <v>18708</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>18086</v>
+        <v>18206</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>495929</v>
+        <v>537814</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>84046</v>
+        <v>86450</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>26.63</v>
+        <v>28.75</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>615</v>
+        <v>688</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
@@ -1420,22 +1420,22 @@
         <v>12</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>16948</v>
+        <v>17004</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>16038</v>
+        <v>16084</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>751047</v>
+        <v>820484</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>80469</v>
+        <v>83567</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>44.31</v>
+        <v>48.25</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>942</v>
+        <v>1067</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -1449,22 +1449,22 @@
         <v>36</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>15940</v>
+        <v>15939</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>15147</v>
+        <v>15174</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>350916</v>
+        <v>385784</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>74663</v>
+        <v>79439</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>22.01</v>
+        <v>24.2</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>535</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -1478,22 +1478,22 @@
         <v>36</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>14312</v>
+        <v>14372</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>13442</v>
+        <v>13497</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>608768</v>
+        <v>666477</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>69854</v>
+        <v>73315</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>42.54</v>
+        <v>46.37</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>821</v>
+        <v>914</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -1507,22 +1507,22 @@
         <v>12</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>12151</v>
+        <v>12260</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>11429</v>
+        <v>11519</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>480874</v>
+        <v>525301</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>51830</v>
+        <v>53943</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>39.57</v>
+        <v>42.85</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>783</v>
+        <v>877</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -1536,22 +1536,22 @@
         <v>12</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>11572</v>
+        <v>11697</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>10967</v>
+        <v>11050</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>617508</v>
+        <v>677031</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>72795</v>
+        <v>76243</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>53.36</v>
+        <v>57.88</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>900</v>
+        <v>1014</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
@@ -1565,22 +1565,22 @@
         <v>12</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>11382</v>
+        <v>11455</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>10893</v>
+        <v>10950</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>510123</v>
+        <v>559910</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>61660</v>
+        <v>64245</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>44.82</v>
+        <v>48.88</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>756</v>
+        <v>847</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
@@ -1594,22 +1594,22 @@
         <v>14</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>10669</v>
+        <v>10756</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>9997</v>
+        <v>10059</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>419327</v>
+        <v>461434</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>46361</v>
+        <v>48182</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>39.3</v>
+        <v>42.9</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>687</v>
+        <v>800</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
@@ -1623,22 +1623,22 @@
         <v>12</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>9282</v>
+        <v>9315</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>8821</v>
+        <v>8860</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>293562</v>
+        <v>321730</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>39946</v>
+        <v>41860</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>31.63</v>
+        <v>34.54</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>610</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
@@ -1652,22 +1652,22 @@
         <v>31</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>9099</v>
+        <v>9162</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>8819</v>
+        <v>8893</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>217453</v>
+        <v>238382</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>42844</v>
+        <v>45812</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>23.9</v>
+        <v>26.02</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>536</v>
+        <v>598</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
@@ -1681,22 +1681,22 @@
         <v>24</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>8715</v>
+        <v>8753</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>8522</v>
+        <v>8560</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>186784</v>
+        <v>201924</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>35911</v>
+        <v>37138</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>21.43</v>
+        <v>23.07</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>554</v>
+        <v>625</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
@@ -1710,22 +1710,22 @@
         <v>14</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>8367</v>
+        <v>8433</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>7931</v>
+        <v>7986</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>291731</v>
+        <v>319466</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>26820</v>
+        <v>27785</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>34.87</v>
+        <v>37.88</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>697</v>
+        <v>806</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -1739,22 +1739,22 @@
         <v>12</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>8119</v>
+        <v>8182</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>7620</v>
+        <v>7639</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>375640</v>
+        <v>412679</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>46473</v>
+        <v>49123</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>46.27</v>
+        <v>50.44</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>747</v>
+        <v>843</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
@@ -1768,22 +1768,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>7177</v>
+        <v>7263</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>6542</v>
+        <v>6573</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>291222</v>
+        <v>324047</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>33660</v>
+        <v>35732</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>40.58</v>
+        <v>44.62</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>633</v>
+        <v>716</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
@@ -1797,22 +1797,22 @@
         <v>24</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>7155</v>
+        <v>7184</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>7087</v>
+        <v>7123</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>70386</v>
+        <v>76299</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>17043</v>
+        <v>18081</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>9.84</v>
+        <v>10.62</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>323</v>
+        <v>358</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
@@ -1826,22 +1826,22 @@
         <v>24</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>6719</v>
+        <v>6744</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>6533</v>
+        <v>6543</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>202899</v>
+        <v>221021</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>24989</v>
+        <v>26171</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>30.2</v>
+        <v>32.77</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>540</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
@@ -1852,25 +1852,25 @@
         <v>50</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>6595</v>
+        <v>6624</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>6376</v>
+        <v>6130</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>210706</v>
+        <v>200428</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>33459</v>
+        <v>39447</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>31.95</v>
+        <v>30.26</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>599</v>
+        <v>652</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
@@ -1878,28 +1878,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>6568</v>
+        <v>6619</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>6085</v>
+        <v>6399</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>181419</v>
+        <v>230426</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>36462</v>
+        <v>34924</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>27.62</v>
+        <v>34.81</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>567</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
@@ -1913,22 +1913,22 @@
         <v>31</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>6329</v>
+        <v>6338</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>6106</v>
+        <v>6127</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>184468</v>
+        <v>201784</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>34659</v>
+        <v>36921</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>29.15</v>
+        <v>31.84</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>510</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
@@ -1942,22 +1942,22 @@
         <v>12</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>5117</v>
+        <v>5193</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>4581</v>
+        <v>4619</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>190438</v>
+        <v>208108</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>16599</v>
+        <v>17291</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>37.22</v>
+        <v>40.07</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>628</v>
+        <v>711</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
@@ -1971,22 +1971,22 @@
         <v>36</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>4611</v>
+        <v>4605</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>4507</v>
+        <v>4512</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>102502</v>
+        <v>112063</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>33134</v>
+        <v>34915</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>22.23</v>
+        <v>24.34</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>416</v>
+        <v>490</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
@@ -2000,22 +2000,22 @@
         <v>57</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>4412</v>
+        <v>4545</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>4339</v>
+        <v>4476</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>89459</v>
+        <v>99354</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>16614</v>
+        <v>18266</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>20.28</v>
+        <v>21.86</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>349</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -2029,22 +2029,22 @@
         <v>24</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>3824</v>
+        <v>3833</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>3767</v>
+        <v>3779</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>55047</v>
+        <v>59616</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>10390</v>
+        <v>10831</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>14.4</v>
+        <v>15.55</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>364</v>
+        <v>419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
@@ -2058,22 +2058,22 @@
         <v>14</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>3425</v>
+        <v>3472</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>3298</v>
+        <v>3340</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>107387</v>
+        <v>119686</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>13589</v>
+        <v>14640</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>31.35</v>
+        <v>34.47</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>396</v>
+        <v>452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
@@ -2087,22 +2087,22 @@
         <v>31</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>3292</v>
+        <v>3289</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>3163</v>
+        <v>3168</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>119442</v>
+        <v>130298</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>19638</v>
+        <v>20860</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>36.28</v>
+        <v>39.62</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>451</v>
+        <v>515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
@@ -2116,22 +2116,22 @@
         <v>24</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>3185</v>
+        <v>3188</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>3110</v>
+        <v>3116</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>47010</v>
+        <v>51058</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>8244</v>
+        <v>8631</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>14.76</v>
+        <v>16.02</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>337</v>
+        <v>380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
@@ -2148,19 +2148,19 @@
         <v>3100</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>3025</v>
+        <v>3027</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>52762</v>
+        <v>57139</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>8676</v>
+        <v>8981</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>17.02</v>
+        <v>18.43</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
@@ -2174,22 +2174,22 @@
         <v>24</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>3092</v>
+        <v>3095</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>3015</v>
+        <v>3021</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>77469</v>
+        <v>84845</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>9618</v>
+        <v>9990</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>25.05</v>
+        <v>27.41</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>361</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
@@ -2203,22 +2203,22 @@
         <v>24</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>2527</v>
+        <v>2534</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>2486</v>
+        <v>2495</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>45148</v>
+        <v>49332</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>5742</v>
+        <v>5997</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>17.87</v>
+        <v>19.47</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>305</v>
+        <v>347</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
@@ -2232,22 +2232,22 @@
         <v>14</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>2494</v>
+        <v>2516</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>2376</v>
+        <v>2384</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>52724</v>
+        <v>58716</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>9766</v>
+        <v>10533</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>21.14</v>
+        <v>23.34</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>415</v>
+        <v>504</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
@@ -2261,22 +2261,22 @@
         <v>36</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>2438</v>
+        <v>2445</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>2324</v>
+        <v>2332</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>48485</v>
+        <v>53896</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>5876</v>
+        <v>6483</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>19.89</v>
+        <v>22.04</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>478</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
@@ -2290,22 +2290,22 @@
         <v>14</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>33965</v>
+        <v>37584</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>7249</v>
+        <v>7831</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>17.9</v>
+        <v>19.82</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>353</v>
+        <v>428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
@@ -2316,25 +2316,25 @@
         <v>68</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>1715</v>
+        <v>1720</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>1659</v>
+        <v>1662</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>32910</v>
+        <v>36608</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>6603</v>
+        <v>7305</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>19.19</v>
+        <v>21.28</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>260</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
@@ -2345,25 +2345,25 @@
         <v>69</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>1675</v>
+        <v>1691</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>1624</v>
+        <v>1681</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>42941</v>
+        <v>18255</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>3471</v>
+        <v>3138</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>25.64</v>
+        <v>10.8</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>254</v>
+        <v>232</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
@@ -2374,25 +2374,25 @@
         <v>70</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>1673</v>
+        <v>1678</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>1665</v>
+        <v>1631</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>16759</v>
+        <v>46979</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>3006</v>
+        <v>3583</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>10.02</v>
+        <v>28</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>213</v>
+        <v>279</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
@@ -2403,25 +2403,25 @@
         <v>71</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>23031</v>
+        <v>24949</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>4659</v>
+        <v>4940</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>16.63</v>
+        <v>17.99</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
@@ -2432,25 +2432,25 @@
         <v>72</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>1340</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>25529</v>
+        <v>28218</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>4473</v>
+        <v>5074</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>18.43</v>
+        <v>20.42</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
@@ -2464,22 +2464,22 @@
         <v>24</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>1276</v>
+        <v>1287</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>1257</v>
+        <v>1264</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>20684</v>
+        <v>22350</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>3344</v>
+        <v>3451</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>16.21</v>
+        <v>17.37</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>265</v>
+        <v>298</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
@@ -2493,22 +2493,22 @@
         <v>24</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>19028</v>
+        <v>20953</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>2878</v>
+        <v>3046</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>15.5</v>
+        <v>17.05</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>307</v>
+        <v>350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
@@ -2522,22 +2522,22 @@
         <v>31</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>31399</v>
+        <v>34257</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>4352</v>
+        <v>4599</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>26.25</v>
+        <v>28.69</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>356</v>
+        <v>405</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
@@ -2554,19 +2554,19 @@
         <v>1171</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>18430</v>
+        <v>20057</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>3072</v>
+        <v>3152</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>15.74</v>
+        <v>17.13</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
@@ -2577,25 +2577,25 @@
         <v>77</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>14503</v>
+        <v>16015</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>3027</v>
+        <v>3333</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>15.85</v>
+        <v>17.48</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
@@ -2609,22 +2609,22 @@
         <v>36</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>893</v>
+        <v>905</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>18483</v>
+        <v>20683</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>1591</v>
+        <v>1735</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>20.7</v>
+        <v>22.85</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>268</v>
+        <v>329</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
@@ -2635,25 +2635,25 @@
         <v>79</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>829</v>
+        <v>814</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>34582</v>
+        <v>26125</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>4974</v>
+        <v>3095</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>39.48</v>
+        <v>29.59</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
@@ -2664,25 +2664,25 @@
         <v>80</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>868</v>
+        <v>876</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>862</v>
+        <v>829</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>19373</v>
+        <v>38024</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>1834</v>
+        <v>5263</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>22.32</v>
+        <v>43.41</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>219</v>
+        <v>346</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
@@ -2693,25 +2693,25 @@
         <v>81</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>804</v>
+        <v>863</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>23461</v>
+        <v>21659</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>2679</v>
+        <v>2040</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>27.03</v>
+        <v>24.9</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>284</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
@@ -2725,22 +2725,22 @@
         <v>24</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>825</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>25537</v>
+        <v>27760</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>4224</v>
+        <v>4441</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>30.37</v>
+        <v>32.81</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>346</v>
+        <v>383</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
@@ -2754,22 +2754,22 @@
         <v>14</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>21018</v>
+        <v>23515</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>3380</v>
+        <v>3774</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>26.54</v>
+        <v>29.65</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>252</v>
+        <v>304</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
@@ -2783,22 +2783,22 @@
         <v>14</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>23940</v>
+        <v>26925</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>1984</v>
+        <v>2157</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>32.4</v>
+        <v>36.34</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
@@ -2812,22 +2812,22 @@
         <v>36</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>15837</v>
+        <v>17627</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>1477</v>
+        <v>1545</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>21.49</v>
+        <v>23.98</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
@@ -2841,22 +2841,22 @@
         <v>36</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>18201</v>
+        <v>20232</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>1507</v>
+        <v>1571</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>26.11</v>
+        <v>28.9</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
@@ -2870,22 +2870,22 @@
         <v>14</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>21345</v>
+        <v>23668</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>2309</v>
+        <v>2547</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>32.1</v>
+        <v>35.48</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>269</v>
+        <v>316</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
@@ -2899,22 +2899,22 @@
         <v>31</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>17794</v>
+        <v>19169</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>1108</v>
+        <v>1154</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>27.98</v>
+        <v>29.86</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>253</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
@@ -2928,22 +2928,22 @@
         <v>24</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>10006</v>
+        <v>10616</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>1901</v>
+        <v>1962</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>18.43</v>
+        <v>19.51</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
@@ -2957,22 +2957,22 @@
         <v>12</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>30418</v>
+        <v>33071</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>2349</v>
+        <v>2518</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>59.18</v>
+        <v>63.84</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>370</v>
+        <v>393</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
@@ -2986,22 +2986,22 @@
         <v>31</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>470</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>20077</v>
+        <v>22485</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>2042</v>
+        <v>2251</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>41.23</v>
+        <v>46.27</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>288</v>
+        <v>315</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
@@ -3015,22 +3015,22 @@
         <v>31</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>15352</v>
+        <v>16569</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>1908</v>
+        <v>2005</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>32.12</v>
+        <v>34.59</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
@@ -3050,16 +3050,16 @@
         <v>431</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>9300</v>
+        <v>10337</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>789</v>
+        <v>823</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>20.9</v>
+        <v>23.23</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>176</v>
+        <v>217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
@@ -3073,22 +3073,22 @@
         <v>24</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>8559</v>
+        <v>9349</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>936</v>
+        <v>979</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>19.63</v>
+        <v>21.25</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
@@ -3108,16 +3108,16 @@
         <v>429</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>4855</v>
+        <v>5375</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>713</v>
+        <v>799</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>11.16</v>
+        <v>12.36</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
@@ -3128,25 +3128,25 @@
         <v>96</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>6506</v>
+        <v>17429</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>931</v>
+        <v>1353</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>15.27</v>
+        <v>40.07</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
@@ -3157,25 +3157,25 @@
         <v>97</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>15524</v>
+        <v>7206</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>1226</v>
+        <v>979</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>36.61</v>
+        <v>16.68</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>225</v>
+        <v>248</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
@@ -3186,7 +3186,7 @@
         <v>98</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>382</v>
@@ -3195,16 +3195,16 @@
         <v>362</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>15018</v>
+        <v>16447</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>1832</v>
+        <v>1941</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>39.31</v>
+        <v>43.05</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
@@ -3215,25 +3215,25 @@
         <v>99</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>4372</v>
+        <v>10360</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>646</v>
+        <v>2254</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>11.88</v>
+        <v>28.08</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>138</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
@@ -3244,25 +3244,25 @@
         <v>100</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>9302</v>
+        <v>4785</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>2024</v>
+        <v>707</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>25.48</v>
+        <v>13.04</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
@@ -3276,22 +3276,22 @@
         <v>24</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>362</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>2968</v>
+        <v>3190</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>852</v>
+        <v>888</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>8.15</v>
+        <v>8.74</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
@@ -3308,19 +3308,19 @@
         <v>364</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>9361</v>
+        <v>10530</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>964</v>
+        <v>1068</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>25.72</v>
+        <v>28.93</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>175</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
@@ -3331,25 +3331,25 @@
         <v>103</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>353</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>11503</v>
+        <v>12902</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>2443</v>
+        <v>2809</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>31.78</v>
+        <v>35.84</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>193</v>
+        <v>226</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
@@ -3360,25 +3360,25 @@
         <v>104</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>8580</v>
+        <v>14677</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>805</v>
+        <v>1243</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>24.17</v>
+        <v>41</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>146</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
@@ -3389,25 +3389,25 @@
         <v>105</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>13388</v>
+        <v>9349</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>1169</v>
+        <v>860</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>38.14</v>
+        <v>26.34</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>254</v>
+        <v>159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
@@ -3418,25 +3418,25 @@
         <v>106</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>11540</v>
+        <v>12969</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>665</v>
+        <v>740</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>34.14</v>
+        <v>38.14</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
@@ -3453,19 +3453,19 @@
         <v>311</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>21853</v>
+        <v>23803</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>1494</v>
+        <v>1588</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>70.27</v>
+        <v>76.54</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
@@ -3476,7 +3476,7 @@
         <v>108</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>303</v>
@@ -3485,16 +3485,16 @@
         <v>281</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>12140</v>
+        <v>13284</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>1849</v>
+        <v>2001</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>40.07</v>
+        <v>43.84</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>209</v>
+        <v>236</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
@@ -3508,22 +3508,22 @@
         <v>24</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E93" s="0" t="n">
         <v>277</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>4198</v>
+        <v>4419</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>14.94</v>
+        <v>15.67</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
@@ -3534,7 +3534,7 @@
         <v>110</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>271</v>
@@ -3543,16 +3543,16 @@
         <v>261</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>7810</v>
+        <v>8746</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>1211</v>
+        <v>1358</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>28.82</v>
+        <v>32.27</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>191</v>
+        <v>222</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
@@ -3572,16 +3572,16 @@
         <v>220</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>3315</v>
+        <v>3565</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>14.17</v>
+        <v>15.24</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
@@ -3595,22 +3595,22 @@
         <v>31</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>202</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>6694</v>
+        <v>3909</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>757</v>
+        <v>328</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>30.71</v>
+        <v>17.85</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>197</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
@@ -3624,22 +3624,22 @@
         <v>31</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>3538</v>
+        <v>7391</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>312</v>
+        <v>844</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>16.46</v>
+        <v>34.22</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>121</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
@@ -3650,25 +3650,25 @@
         <v>114</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>5323</v>
+        <v>5938</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>539</v>
+        <v>600</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>26.48</v>
+        <v>29.25</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
@@ -3682,22 +3682,22 @@
         <v>31</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>4398</v>
+        <v>4893</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>22.21</v>
+        <v>24.34</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
@@ -3711,22 +3711,22 @@
         <v>12</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>185</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>5393</v>
+        <v>5815</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>27.66</v>
+        <v>29.97</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>243</v>
+        <v>274</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
@@ -3737,7 +3737,7 @@
         <v>117</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>193</v>
@@ -3746,16 +3746,16 @@
         <v>180</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>5523</v>
+        <v>6050</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>533</v>
+        <v>572</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>28.62</v>
+        <v>31.35</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
@@ -3769,22 +3769,22 @@
         <v>24</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>176</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>1649</v>
+        <v>1801</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>8.82</v>
+        <v>9.68</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
@@ -3795,25 +3795,25 @@
         <v>119</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>172</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>6366</v>
+        <v>6959</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>801</v>
+        <v>857</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>35.17</v>
+        <v>39.1</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
@@ -3827,22 +3827,22 @@
         <v>36</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>168</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>4347</v>
+        <v>2695</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>441</v>
+        <v>194</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>24.7</v>
+        <v>15.23</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
@@ -3859,19 +3859,19 @@
         <v>175</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>2404</v>
+        <v>4778</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>177</v>
+        <v>447</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>13.74</v>
+        <v>27.3</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>117</v>
+        <v>146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
@@ -3885,22 +3885,22 @@
         <v>36</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>3209</v>
+        <v>3450</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>19.57</v>
+        <v>20.66</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>238</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
@@ -3920,16 +3920,16 @@
         <v>155</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>13957</v>
+        <v>15458</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>1127</v>
+        <v>1190</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>86.69</v>
+        <v>96.01</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
@@ -3949,16 +3949,16 @@
         <v>142</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>2083</v>
+        <v>2333</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>13.44</v>
+        <v>15.05</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
@@ -3969,25 +3969,25 @@
         <v>125</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E109" s="0" t="n">
         <v>143</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>6132</v>
+        <v>6651</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>673</v>
+        <v>705</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>40.88</v>
+        <v>44.05</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
@@ -3998,7 +3998,7 @@
         <v>126</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>142</v>
@@ -4007,16 +4007,16 @@
         <v>139</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>4402</v>
+        <v>4860</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>31</v>
+        <v>34.23</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
@@ -4027,25 +4027,25 @@
         <v>127</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>3941</v>
+        <v>4357</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>583</v>
+        <v>631</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>29.41</v>
+        <v>32.27</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
@@ -4056,25 +4056,25 @@
         <v>128</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>128</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>2272</v>
+        <v>5756</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>302</v>
+        <v>392</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>17.75</v>
+        <v>44.97</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>131</v>
+        <v>169</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
@@ -4085,25 +4085,25 @@
         <v>129</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>128</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>5184</v>
+        <v>2504</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>374</v>
+        <v>317</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>40.5</v>
+        <v>19.56</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
@@ -4117,22 +4117,22 @@
         <v>12</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>5355</v>
+        <v>5843</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>42.5</v>
+        <v>45.65</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
@@ -4143,7 +4143,7 @@
         <v>131</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>122</v>
@@ -4152,16 +4152,16 @@
         <v>105</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>4605</v>
+        <v>5067</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>37.75</v>
+        <v>41.53</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
@@ -4175,22 +4175,22 @@
         <v>22</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E116" s="0" t="n">
         <v>101</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>2997</v>
+        <v>3243</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>26.76</v>
+        <v>28.7</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
@@ -4210,16 +4210,16 @@
         <v>102</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>2625</v>
+        <v>2839</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>25.49</v>
+        <v>27.56</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>178</v>
+        <v>224</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
@@ -4230,7 +4230,7 @@
         <v>134</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>99</v>
@@ -4239,16 +4239,16 @@
         <v>95</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>3212</v>
+        <v>4002</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>300</v>
+        <v>369</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>32.44</v>
+        <v>40.42</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
@@ -4259,7 +4259,7 @@
         <v>135</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>99</v>
@@ -4268,16 +4268,16 @@
         <v>95</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>3637</v>
+        <v>3557</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>36.74</v>
+        <v>35.93</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
@@ -4291,22 +4291,22 @@
         <v>22</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>2341</v>
+        <v>2637</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>24.39</v>
+        <v>26.91</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
@@ -4317,7 +4317,7 @@
         <v>137</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>90</v>
@@ -4326,16 +4326,16 @@
         <v>82</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>2464</v>
+        <v>2733</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>27.38</v>
+        <v>30.37</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
@@ -4346,7 +4346,7 @@
         <v>138</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>89</v>
@@ -4355,16 +4355,16 @@
         <v>86</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>1336</v>
+        <v>1514</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>15.01</v>
+        <v>17.01</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
@@ -4375,7 +4375,7 @@
         <v>139</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>86</v>
@@ -4384,16 +4384,16 @@
         <v>84</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>2552</v>
+        <v>2814</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>29.67</v>
+        <v>32.72</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
@@ -4404,25 +4404,25 @@
         <v>140</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E124" s="0" t="n">
         <v>77</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>4628</v>
+        <v>3051</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>353</v>
+        <v>111</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>57.85</v>
+        <v>35.48</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>145</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
@@ -4433,25 +4433,25 @@
         <v>141</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>1874</v>
+        <v>5038</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>184</v>
+        <v>357</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>23.43</v>
+        <v>62.2</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>119</v>
+        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
@@ -4462,25 +4462,25 @@
         <v>142</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E126" s="0" t="n">
         <v>76</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>2776</v>
+        <v>2107</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>34.7</v>
+        <v>26.01</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>102</v>
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
@@ -4491,7 +4491,7 @@
         <v>143</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>76</v>
@@ -4500,16 +4500,16 @@
         <v>71</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>1593</v>
+        <v>1751</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>20.96</v>
+        <v>23.04</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>104</v>
+        <v>133</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
@@ -4523,22 +4523,22 @@
         <v>31</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>66</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>2495</v>
+        <v>2735</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>34.65</v>
+        <v>37.47</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
@@ -4549,25 +4549,25 @@
         <v>145</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>64</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>2568</v>
+        <v>2736</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>36.69</v>
+        <v>39.65</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
@@ -4578,25 +4578,25 @@
         <v>146</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>66</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>2801</v>
+        <v>1990</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>261</v>
+        <v>138</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>42.44</v>
+        <v>30.15</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
@@ -4607,25 +4607,25 @@
         <v>147</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>1798</v>
+        <v>3092</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>125</v>
+        <v>281</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>28.09</v>
+        <v>46.85</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
@@ -4636,7 +4636,7 @@
         <v>148</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>62</v>
@@ -4645,16 +4645,16 @@
         <v>60</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>1746</v>
+        <v>1927</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>28.16</v>
+        <v>31.08</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
@@ -4668,22 +4668,22 @@
         <v>14</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E133" s="0" t="n">
         <v>53</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>1631</v>
+        <v>1787</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>28.61</v>
+        <v>30.81</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
@@ -4694,7 +4694,7 @@
         <v>150</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>55</v>
@@ -4703,16 +4703,16 @@
         <v>49</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>1133</v>
+        <v>1268</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>20.6</v>
+        <v>23.05</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
@@ -4732,16 +4732,16 @@
         <v>51</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>1206</v>
+        <v>1343</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>22.33</v>
+        <v>24.87</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
@@ -4752,7 +4752,7 @@
         <v>152</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>53</v>
@@ -4761,16 +4761,16 @@
         <v>52</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>1655</v>
+        <v>1812</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>31.23</v>
+        <v>34.19</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
@@ -4790,16 +4790,16 @@
         <v>50</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>1672</v>
+        <v>1948</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>32.78</v>
+        <v>38.2</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
@@ -4810,25 +4810,25 @@
         <v>154</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>49</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>1735</v>
+        <v>502</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>257</v>
+        <v>121</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>35.41</v>
+        <v>10.24</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
@@ -4839,25 +4839,25 @@
         <v>155</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>467</v>
+        <v>1934</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>116</v>
+        <v>263</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>9.73</v>
+        <v>39.47</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>80</v>
+        <v>145</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
@@ -4868,25 +4868,25 @@
         <v>156</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>41</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>1374</v>
+        <v>1033</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>33.51</v>
+        <v>25.2</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
@@ -4903,19 +4903,19 @@
         <v>41</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>1753</v>
+        <v>1959</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>42.76</v>
+        <v>47.78</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
@@ -4929,22 +4929,22 @@
         <v>14</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E142" s="0" t="n">
         <v>38</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>2327</v>
+        <v>2697</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>58.18</v>
+        <v>65.78</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
@@ -4955,25 +4955,25 @@
         <v>159</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>40</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>940</v>
+        <v>1498</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>23.5</v>
+        <v>37.45</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
@@ -4987,22 +4987,22 @@
         <v>31</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E144" s="0" t="n">
         <v>36</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>1135</v>
+        <v>1307</v>
       </c>
       <c r="G144" s="0" t="n">
         <v>55</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>29.1</v>
+        <v>32.68</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
@@ -5013,25 +5013,25 @@
         <v>161</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>36</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>744</v>
+        <v>725</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>20.67</v>
+        <v>20.14</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>79</v>
+        <v>105</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
@@ -5051,16 +5051,16 @@
         <v>34</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>664</v>
+        <v>1857</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>18.44</v>
+        <v>51.58</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
@@ -5077,19 +5077,19 @@
         <v>36</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>1671</v>
+        <v>241</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>46.42</v>
+        <v>6.69</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
@@ -5100,7 +5100,7 @@
         <v>164</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>36</v>
@@ -5109,16 +5109,16 @@
         <v>36</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>218</v>
+        <v>797</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>6.06</v>
+        <v>22.14</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>58</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
@@ -5138,16 +5138,16 @@
         <v>34</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>1275</v>
+        <v>1419</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>36.43</v>
+        <v>40.54</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
@@ -5158,25 +5158,25 @@
         <v>166</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>696</v>
+        <v>907</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>22.45</v>
+        <v>28.34</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
@@ -5196,16 +5196,16 @@
         <v>30</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>978</v>
+        <v>1062</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>31.55</v>
+        <v>34.26</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
@@ -5225,16 +5225,16 @@
         <v>30</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>915</v>
+        <v>1054</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>30.5</v>
+        <v>35.13</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
@@ -5245,7 +5245,7 @@
         <v>169</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>29</v>
@@ -5254,16 +5254,16 @@
         <v>25</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>889</v>
+        <v>948</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>30.66</v>
+        <v>32.69</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
@@ -5283,16 +5283,16 @@
         <v>27</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>1396</v>
+        <v>1550</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>48.14</v>
+        <v>53.45</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
@@ -5303,7 +5303,7 @@
         <v>171</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>28</v>
@@ -5312,16 +5312,16 @@
         <v>27</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>459</v>
+        <v>508</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>16.39</v>
+        <v>18.14</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
@@ -5341,16 +5341,16 @@
         <v>26</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>1102</v>
+        <v>1243</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>40.81</v>
+        <v>46.04</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
@@ -5370,16 +5370,16 @@
         <v>24</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>840</v>
+        <v>900</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>32.31</v>
+        <v>34.62</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
@@ -5399,16 +5399,16 @@
         <v>23</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>14.72</v>
+        <v>16.36</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
@@ -5419,7 +5419,7 @@
         <v>175</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>21</v>
@@ -5428,16 +5428,16 @@
         <v>20</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>1201</v>
+        <v>1328</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>57.19</v>
+        <v>63.24</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
@@ -5457,16 +5457,16 @@
         <v>15</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>616</v>
+        <v>644</v>
       </c>
       <c r="G160" s="0" t="n">
         <v>62</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>32.42</v>
+        <v>33.89</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
@@ -5477,7 +5477,7 @@
         <v>177</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>18</v>
@@ -5486,16 +5486,16 @@
         <v>17</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>784</v>
+        <v>586</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>43.56</v>
+        <v>32.56</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>105</v>
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
@@ -5506,7 +5506,7 @@
         <v>178</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>18</v>
@@ -5515,16 +5515,16 @@
         <v>17</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>528</v>
+        <v>872</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>29.33</v>
+        <v>48.44</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>50</v>
+        <v>113</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
@@ -5535,25 +5535,25 @@
         <v>179</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E163" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>497</v>
+        <v>447</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>29.24</v>
+        <v>24.83</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>56</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
@@ -5564,25 +5564,25 @@
         <v>180</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>17</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>392</v>
+        <v>529</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>23.06</v>
+        <v>31.12</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>107</v>
+        <v>66</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
@@ -5593,7 +5593,7 @@
         <v>181</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>16</v>
@@ -5602,16 +5602,16 @@
         <v>15</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>523</v>
+        <v>633</v>
       </c>
       <c r="G165" s="0" t="n">
         <v>14</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>32.69</v>
+        <v>39.56</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
@@ -5631,16 +5631,16 @@
         <v>13</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="G166" s="0" t="n">
         <v>13</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>18.73</v>
+        <v>20.53</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
@@ -5660,16 +5660,16 @@
         <v>14</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="G167" s="0" t="n">
         <v>14</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>22.33</v>
+        <v>25.2</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
@@ -5680,7 +5680,7 @@
         <v>184</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>14</v>
@@ -5689,16 +5689,16 @@
         <v>13</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>671</v>
+        <v>787</v>
       </c>
       <c r="G168" s="0" t="n">
         <v>8</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>47.93</v>
+        <v>56.21</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
@@ -5709,7 +5709,7 @@
         <v>185</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>14</v>
@@ -5718,16 +5718,16 @@
         <v>14</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="G169" s="0" t="n">
         <v>21</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>15.29</v>
+        <v>16.86</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
@@ -5738,7 +5738,7 @@
         <v>186</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>14</v>
@@ -5747,16 +5747,16 @@
         <v>13</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>15.57</v>
+        <v>17.36</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="171">
@@ -5776,16 +5776,16 @@
         <v>13</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>497</v>
+        <v>564</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>35.5</v>
+        <v>40.29</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="172">
@@ -5805,16 +5805,16 @@
         <v>13</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>293</v>
+        <v>359</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>22.54</v>
+        <v>27.62</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
@@ -5825,25 +5825,25 @@
         <v>189</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>180</v>
+        <v>557</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>13.85</v>
+        <v>42.85</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
@@ -5854,25 +5854,25 @@
         <v>190</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>502</v>
+        <v>198</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>38.62</v>
+        <v>15.23</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="175">
@@ -5883,25 +5883,25 @@
         <v>191</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>225</v>
+        <v>582</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>17.31</v>
+        <v>44.77</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="176">
@@ -5912,25 +5912,25 @@
         <v>192</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>11.54</v>
+        <v>19.23</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="177">
@@ -5941,25 +5941,25 @@
         <v>193</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>529</v>
+        <v>163</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>40.69</v>
+        <v>12.54</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
@@ -5979,16 +5979,16 @@
         <v>8</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="179">
@@ -6002,22 +6002,22 @@
         <v>31</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E179" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>28.55</v>
+        <v>29.5</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
@@ -6028,7 +6028,7 @@
         <v>196</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>11</v>
@@ -6037,16 +6037,16 @@
         <v>9</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G180" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>3.55</v>
+        <v>3.73</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="181">
@@ -6057,25 +6057,25 @@
         <v>197</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>25.9</v>
+        <v>28.3</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="182">
@@ -6086,25 +6086,25 @@
         <v>198</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>25.5</v>
+        <v>27.5</v>
       </c>
       <c r="I182" s="0" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
@@ -6124,16 +6124,16 @@
         <v>10</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>26</v>
+        <v>28.9</v>
       </c>
       <c r="I183" s="0" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
@@ -6153,16 +6153,16 @@
         <v>10</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>40.7</v>
+        <v>42.8</v>
       </c>
       <c r="I184" s="0" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
@@ -6182,16 +6182,16 @@
         <v>8</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="G185" s="0" t="n">
         <v>16</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>22.44</v>
+        <v>26.56</v>
       </c>
       <c r="I185" s="0" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
@@ -6211,16 +6211,16 @@
         <v>9</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="G186" s="0" t="n">
         <v>17</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>41.67</v>
+        <v>45.44</v>
       </c>
       <c r="I186" s="0" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
@@ -6240,16 +6240,16 @@
         <v>8</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>17.5</v>
+        <v>19.88</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
@@ -6260,7 +6260,7 @@
         <v>204</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>8</v>
@@ -6269,16 +6269,16 @@
         <v>8</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>10.88</v>
+        <v>6.63</v>
       </c>
       <c r="I188" s="0" t="n">
-        <v>42</v>
+        <v>90</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
@@ -6289,7 +6289,7 @@
         <v>205</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>8</v>
@@ -6298,16 +6298,16 @@
         <v>8</v>
       </c>
       <c r="F189" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="G189" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H189" s="0" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="I189" s="0" t="n">
         <v>48</v>
-      </c>
-      <c r="G189" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H189" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="I189" s="0" t="n">
-        <v>73</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
@@ -6327,16 +6327,16 @@
         <v>7</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>704</v>
+        <v>771</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>100.57</v>
+        <v>110.14</v>
       </c>
       <c r="I190" s="0" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="191">
@@ -6356,16 +6356,16 @@
         <v>7</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G191" s="0" t="n">
         <v>10</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>16</v>
+        <v>16.86</v>
       </c>
       <c r="I191" s="0" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
@@ -6376,25 +6376,25 @@
         <v>208</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E192" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>182</v>
+        <v>374</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>30.33</v>
+        <v>62.33</v>
       </c>
       <c r="I192" s="0" t="n">
-        <v>44</v>
+        <v>92</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
@@ -6405,7 +6405,7 @@
         <v>209</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>6</v>
@@ -6414,16 +6414,16 @@
         <v>5</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>22.67</v>
+        <v>33</v>
       </c>
       <c r="I193" s="0" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
@@ -6434,25 +6434,25 @@
         <v>210</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E194" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>325</v>
+        <v>192</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>54.17</v>
+        <v>38.4</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>78</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
@@ -6463,7 +6463,7 @@
         <v>211</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>5</v>
@@ -6472,16 +6472,16 @@
         <v>5</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>179</v>
+        <v>66</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>35.8</v>
+        <v>13.2</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
@@ -6492,25 +6492,25 @@
         <v>212</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E196" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>10</v>
+        <v>11.2</v>
       </c>
       <c r="I196" s="0" t="n">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="197">
@@ -6521,25 +6521,25 @@
         <v>213</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H197" s="0" t="n">
-        <v>10</v>
+        <v>17.2</v>
       </c>
       <c r="I197" s="0" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
@@ -6550,7 +6550,7 @@
         <v>214</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>5</v>
@@ -6559,16 +6559,16 @@
         <v>4</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G198" s="0" t="n">
         <v>3</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>11.4</v>
+        <v>12.6</v>
       </c>
       <c r="I198" s="0" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="199">
@@ -6579,7 +6579,7 @@
         <v>215</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>5</v>
@@ -6588,16 +6588,16 @@
         <v>5</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H199" s="0" t="n">
-        <v>11.4</v>
+        <v>31.4</v>
       </c>
       <c r="I199" s="0" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="200">
@@ -6608,7 +6608,7 @@
         <v>216</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>5</v>
@@ -6617,16 +6617,16 @@
         <v>5</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="G200" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>15.2</v>
+        <v>11.4</v>
       </c>
       <c r="I200" s="0" t="n">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="201">
@@ -6637,7 +6637,7 @@
         <v>217</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>4</v>
@@ -6646,16 +6646,16 @@
         <v>4</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>69</v>
+        <v>251</v>
       </c>
       <c r="G201" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H201" s="0" t="n">
-        <v>17.25</v>
+        <v>62.75</v>
       </c>
       <c r="I201" s="0" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="202">
@@ -6666,7 +6666,7 @@
         <v>218</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>4</v>
@@ -6675,16 +6675,16 @@
         <v>4</v>
       </c>
       <c r="F202" s="0" t="n">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="G202" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H202" s="0" t="n">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="I202" s="0" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="203">
@@ -6704,16 +6704,16 @@
         <v>4</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G203" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H203" s="0" t="n">
-        <v>22</v>
+        <v>23.75</v>
       </c>
       <c r="I203" s="0" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="204">
@@ -6733,16 +6733,16 @@
         <v>3</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G204" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H204" s="0" t="n">
-        <v>5.67</v>
+        <v>6</v>
       </c>
       <c r="I204" s="0" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="205">
@@ -6753,25 +6753,25 @@
         <v>221</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E205" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G205" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H205" s="0" t="n">
-        <v>27.33</v>
+        <v>29.33</v>
       </c>
       <c r="I205" s="0" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="206">
@@ -6782,25 +6782,25 @@
         <v>222</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E206" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G206" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H206" s="0" t="n">
-        <v>27.33</v>
+        <v>28.67</v>
       </c>
       <c r="I206" s="0" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="207">
@@ -6811,7 +6811,7 @@
         <v>223</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>2</v>
@@ -6820,16 +6820,16 @@
         <v>2</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>23</v>
+        <v>404</v>
       </c>
       <c r="G207" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H207" s="0" t="n">
-        <v>11.5</v>
+        <v>202</v>
       </c>
       <c r="I207" s="0" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="208">
@@ -6840,7 +6840,7 @@
         <v>224</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>2</v>
@@ -6858,7 +6858,7 @@
         <v>8</v>
       </c>
       <c r="I208" s="0" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="209">
@@ -6869,7 +6869,7 @@
         <v>225</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>2</v>
@@ -6878,16 +6878,16 @@
         <v>2</v>
       </c>
       <c r="F209" s="0" t="n">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="G209" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H209" s="0" t="n">
-        <v>13.5</v>
+        <v>61</v>
       </c>
       <c r="I209" s="0" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="210">
@@ -6898,7 +6898,7 @@
         <v>226</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>2</v>
@@ -6907,16 +6907,16 @@
         <v>2</v>
       </c>
       <c r="F210" s="0" t="n">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="G210" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H210" s="0" t="n">
-        <v>55.5</v>
+        <v>15</v>
       </c>
       <c r="I210" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="211">
@@ -6927,7 +6927,7 @@
         <v>227</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>2</v>
@@ -6936,16 +6936,16 @@
         <v>2</v>
       </c>
       <c r="F211" s="0" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G211" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H211" s="0" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="I211" s="0" t="n">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="212">
@@ -6956,7 +6956,7 @@
         <v>228</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>2</v>
@@ -6965,16 +6965,16 @@
         <v>2</v>
       </c>
       <c r="F212" s="0" t="n">
-        <v>377</v>
+        <v>42</v>
       </c>
       <c r="G212" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H212" s="0" t="n">
-        <v>188.5</v>
+        <v>21</v>
       </c>
       <c r="I212" s="0" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="213">
@@ -6985,7 +6985,7 @@
         <v>229</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>1</v>
@@ -6994,16 +6994,16 @@
         <v>1</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>203</v>
+        <v>4</v>
       </c>
       <c r="G213" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H213" s="0" t="n">
-        <v>203</v>
+        <v>4</v>
       </c>
       <c r="I213" s="0" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="214">
@@ -7014,7 +7014,7 @@
         <v>230</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>1</v>
@@ -7023,16 +7023,16 @@
         <v>1</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G214" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H214" s="0" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I214" s="0" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="215">
@@ -7043,7 +7043,7 @@
         <v>231</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D215" s="0" t="n">
         <v>1</v>
@@ -7052,16 +7052,16 @@
         <v>1</v>
       </c>
       <c r="F215" s="0" t="n">
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="G215" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H215" s="0" t="n">
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="I215" s="0" t="n">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="216">
@@ -7072,7 +7072,7 @@
         <v>232</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D216" s="0" t="n">
         <v>1</v>
@@ -7081,16 +7081,16 @@
         <v>1</v>
       </c>
       <c r="F216" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G216" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H216" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I216" s="0" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="217">
@@ -7110,16 +7110,16 @@
         <v>1</v>
       </c>
       <c r="F217" s="0" t="n">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="G217" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H217" s="0" t="n">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="I217" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="218">
@@ -7130,7 +7130,7 @@
         <v>234</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D218" s="0" t="n">
         <v>1</v>
@@ -7139,16 +7139,16 @@
         <v>1</v>
       </c>
       <c r="F218" s="0" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G218" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H218" s="0" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I218" s="0" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="219">
@@ -7165,19 +7165,19 @@
         <v>1</v>
       </c>
       <c r="E219" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F219" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F219" s="0" t="n">
-        <v>17</v>
-      </c>
       <c r="G219" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H219" s="0" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I219" s="0" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="220">
@@ -7194,19 +7194,19 @@
         <v>1</v>
       </c>
       <c r="E220" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220" s="0" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G220" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H220" s="0" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I220" s="0" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
